--- a/02_donnees/activité09/appreciation-habitude-j0800.xlsx
+++ b/02_donnees/activité09/appreciation-habitude-j0800.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-saisie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-debut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{543A8E39-5905-45F4-8C25-152BD94B625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28A9CA57-1C61-4C1A-9101-BEDF380F4988}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{543A8E39-5905-45F4-8C25-152BD94B625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C9FA33-4530-44B9-80E8-DCC9B99B4B42}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1890" windowWidth="24510" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:Q36"/>
+      <selection activeCell="C19" sqref="C19:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -674,21 +674,15 @@
         <v>29</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -725,23 +719,13 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -781,12 +765,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -805,22 +785,14 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" t="s">
         <v>26</v>
@@ -837,22 +809,14 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" t="s">
         <v>27</v>
@@ -886,9 +850,7 @@
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -896,12 +858,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -938,24 +896,14 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="17" spans="1:17">
@@ -1060,37 +1008,19 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="6"/>
     </row>
@@ -1101,33 +1031,19 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="7"/>
     </row>
@@ -1142,19 +1058,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1169,9 +1079,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1190,9 +1098,7 @@
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1218,22 +1124,14 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
@@ -1248,19 +1146,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1272,9 +1164,7 @@
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1286,9 +1176,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:17">
@@ -1298,37 +1186,19 @@
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="6"/>
     </row>
@@ -1365,19 +1235,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
